--- a/Jogos_do_Dia/2023-08-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>League</t>
   </si>
@@ -119,12 +119,27 @@
   </si>
   <si>
     <t>Odds_Corners_Over115</t>
+  </si>
+  <si>
+    <t>South America Copa Libertadores</t>
+  </si>
+  <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>Fluminense</t>
+  </si>
+  <si>
+    <t>Olimpia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,11 +192,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,6 +605,113 @@
         <v>34</v>
       </c>
     </row>
+    <row r="2" spans="1:35">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2">
+        <v>1.4</v>
+      </c>
+      <c r="H2">
+        <v>4.4</v>
+      </c>
+      <c r="I2">
+        <v>7.25</v>
+      </c>
+      <c r="J2">
+        <v>1.03</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <v>1.25</v>
+      </c>
+      <c r="M2">
+        <v>3.77</v>
+      </c>
+      <c r="N2">
+        <v>1.8</v>
+      </c>
+      <c r="O2">
+        <v>1.9</v>
+      </c>
+      <c r="P2">
+        <v>1.36</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>2.05</v>
+      </c>
+      <c r="S2">
+        <v>1.7</v>
+      </c>
+      <c r="T2">
+        <v>1.07</v>
+      </c>
+      <c r="U2">
+        <v>1.16</v>
+      </c>
+      <c r="V2">
+        <v>2.95</v>
+      </c>
+      <c r="W2">
+        <v>1.75</v>
+      </c>
+      <c r="X2">
+        <v>2.13</v>
+      </c>
+      <c r="Y2">
+        <v>1.88</v>
+      </c>
+      <c r="Z2">
+        <v>1.2</v>
+      </c>
+      <c r="AA2">
+        <v>3.08</v>
+      </c>
+      <c r="AB2">
+        <v>1.2</v>
+      </c>
+      <c r="AC2">
+        <v>14</v>
+      </c>
+      <c r="AD2">
+        <v>5.19</v>
+      </c>
+      <c r="AE2">
+        <v>1.19</v>
+      </c>
+      <c r="AF2">
+        <v>1.35</v>
+      </c>
+      <c r="AG2">
+        <v>1.4</v>
+      </c>
+      <c r="AH2">
+        <v>1.7</v>
+      </c>
+      <c r="AI2">
+        <v>2.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Jogos_do_Dia/2023-08-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -625,13 +625,13 @@
         <v>38</v>
       </c>
       <c r="G2">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="H2">
-        <v>4.4</v>
+        <v>3.86</v>
       </c>
       <c r="I2">
-        <v>7.25</v>
+        <v>6.13</v>
       </c>
       <c r="J2">
         <v>1.03</v>
@@ -646,10 +646,10 @@
         <v>3.77</v>
       </c>
       <c r="N2">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="O2">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="P2">
         <v>1.36</v>
